--- a/project/CV/CV_80.xlsx
+++ b/project/CV/CV_80.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,349 +498,349 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>adams</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>170348</v>
+        <v>139943</v>
       </c>
       <c r="D2" t="n">
-        <v>3472</v>
+        <v>1794</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F2" t="n">
-        <v>5001</v>
+        <v>39001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.019</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.073</v>
+        <v>0.116</v>
       </c>
       <c r="I2" t="n">
-        <v>0.134</v>
+        <v>0.149</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2160000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ashley</t>
+          <t>allen</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>164958</v>
+        <v>905419</v>
       </c>
       <c r="D3" t="n">
-        <v>2924</v>
+        <v>20337</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F3" t="n">
-        <v>5003</v>
+        <v>39003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.023</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.103</v>
+        <v>0.104</v>
       </c>
       <c r="I3" t="n">
-        <v>0.163</v>
+        <v>0.114</v>
       </c>
       <c r="J3" t="n">
-        <v>0.117</v>
+        <v>0.382</v>
       </c>
       <c r="K3" t="n">
-        <v>0.595</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>baxter</t>
+          <t>ashland</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>223060</v>
+        <v>259194</v>
       </c>
       <c r="D4" t="n">
-        <v>5950</v>
+        <v>3910</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F4" t="n">
-        <v>5005</v>
+        <v>39005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.15</v>
+        <v>0.068</v>
       </c>
       <c r="H4" t="n">
-        <v>0.104</v>
+        <v>0.035</v>
       </c>
       <c r="I4" t="n">
-        <v>0.108</v>
+        <v>0.268</v>
       </c>
       <c r="J4" t="n">
-        <v>0.104</v>
+        <v>0.19</v>
       </c>
       <c r="K4" t="n">
-        <v>0.534</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>benton</t>
+          <t>ashtabula</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2511988</v>
+        <v>439781</v>
       </c>
       <c r="D5" t="n">
-        <v>32641</v>
+        <v>14405</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F5" t="n">
-        <v>5007</v>
+        <v>39007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.081</v>
+        <v>0.144</v>
       </c>
       <c r="H5" t="n">
-        <v>0.034</v>
+        <v>0.008</v>
       </c>
       <c r="I5" t="n">
-        <v>0.083</v>
+        <v>0.099</v>
       </c>
       <c r="J5" t="n">
-        <v>0.16</v>
+        <v>0.257</v>
       </c>
       <c r="K5" t="n">
-        <v>0.643</v>
+        <v>0.4920000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>boone</t>
+          <t>athens</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>300536</v>
+        <v>363458</v>
       </c>
       <c r="D6" t="n">
-        <v>7181</v>
+        <v>1054</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F6" t="n">
-        <v>5009</v>
+        <v>39009</v>
       </c>
       <c r="G6" t="n">
-        <v>0.129</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.145</v>
+        <v>0.115</v>
       </c>
       <c r="I6" t="n">
-        <v>0.122</v>
+        <v>0.164</v>
       </c>
       <c r="J6" t="n">
-        <v>0.189</v>
+        <v>0.236</v>
       </c>
       <c r="K6" t="n">
-        <v>0.416</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bradley</t>
+          <t>auglaize</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>117598</v>
+        <v>394446</v>
       </c>
       <c r="D7" t="n">
-        <v>2281</v>
+        <v>6220</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F7" t="n">
-        <v>5011</v>
+        <v>39011</v>
       </c>
       <c r="G7" t="n">
-        <v>0.094</v>
+        <v>0.131</v>
       </c>
       <c r="H7" t="n">
-        <v>0.102</v>
+        <v>0.08900000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.175</v>
+        <v>0.153</v>
       </c>
       <c r="J7" t="n">
-        <v>0.184</v>
+        <v>0.342</v>
       </c>
       <c r="K7" t="n">
-        <v>0.445</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>calhoun</t>
+          <t>belmont</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25311</v>
+        <v>401985</v>
       </c>
       <c r="D8" t="n">
-        <v>118</v>
+        <v>7852</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F8" t="n">
-        <v>5013</v>
+        <v>39013</v>
       </c>
       <c r="G8" t="n">
-        <v>0.145</v>
+        <v>0.08199999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.132</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.108</v>
+        <v>0.118</v>
       </c>
       <c r="J8" t="n">
-        <v>0.211</v>
+        <v>0.25</v>
       </c>
       <c r="K8" t="n">
-        <v>0.404</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>carroll</t>
+          <t>brown</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>265459</v>
+        <v>239634</v>
       </c>
       <c r="D9" t="n">
-        <v>4068</v>
+        <v>1619</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F9" t="n">
-        <v>5015</v>
+        <v>39015</v>
       </c>
       <c r="G9" t="n">
-        <v>0.111</v>
+        <v>0.177</v>
       </c>
       <c r="H9" t="n">
-        <v>0.068</v>
+        <v>0.177</v>
       </c>
       <c r="I9" t="n">
-        <v>0.115</v>
+        <v>0.101</v>
       </c>
       <c r="J9" t="n">
-        <v>0.129</v>
+        <v>0.128</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5770000000000001</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>chicot</t>
+          <t>butler</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>236602</v>
+        <v>2982712</v>
       </c>
       <c r="D10" t="n">
-        <v>4736</v>
+        <v>31658</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F10" t="n">
-        <v>5017</v>
+        <v>39017</v>
       </c>
       <c r="G10" t="n">
-        <v>0.104</v>
+        <v>0.047</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07400000000000001</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.193</v>
+        <v>0.106</v>
       </c>
       <c r="J10" t="n">
-        <v>0.097</v>
+        <v>0.244</v>
       </c>
       <c r="K10" t="n">
         <v>0.531</v>
@@ -849,274 +849,274 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>clark</t>
+          <t>carroll</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>163089</v>
+        <v>121292</v>
       </c>
       <c r="D11" t="n">
-        <v>2359</v>
+        <v>2202</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F11" t="n">
-        <v>5019</v>
+        <v>39019</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08</v>
+        <v>0.147</v>
       </c>
       <c r="H11" t="n">
-        <v>0.091</v>
+        <v>0.261</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08</v>
+        <v>0.052</v>
       </c>
       <c r="J11" t="n">
-        <v>0.231</v>
+        <v>0.15</v>
       </c>
       <c r="K11" t="n">
-        <v>0.518</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>clay</t>
+          <t>champaign</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>149280</v>
+        <v>205281</v>
       </c>
       <c r="D12" t="n">
-        <v>3797</v>
+        <v>2113</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F12" t="n">
-        <v>5021</v>
+        <v>39021</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08199999999999999</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0.124</v>
+        <v>0.051</v>
       </c>
       <c r="I12" t="n">
-        <v>0.157</v>
+        <v>0.274</v>
       </c>
       <c r="J12" t="n">
-        <v>0.242</v>
+        <v>0.269</v>
       </c>
       <c r="K12" t="n">
-        <v>0.395</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>cleburne</t>
+          <t>clark</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>158438</v>
+        <v>1030013</v>
       </c>
       <c r="D13" t="n">
-        <v>4982</v>
+        <v>22428</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F13" t="n">
-        <v>5023</v>
+        <v>39023</v>
       </c>
       <c r="G13" t="n">
-        <v>0.036</v>
+        <v>0.066</v>
       </c>
       <c r="H13" t="n">
-        <v>0.065</v>
+        <v>0.027</v>
       </c>
       <c r="I13" t="n">
-        <v>0.093</v>
+        <v>0.19</v>
       </c>
       <c r="J13" t="n">
-        <v>0.259</v>
+        <v>0.247</v>
       </c>
       <c r="K13" t="n">
-        <v>0.546</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cleveland</t>
+          <t>clermont</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>73128</v>
+        <v>1277050</v>
       </c>
       <c r="D14" t="n">
-        <v>2579</v>
+        <v>10631</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F14" t="n">
-        <v>5025</v>
+        <v>39025</v>
       </c>
       <c r="G14" t="n">
-        <v>0.107</v>
+        <v>0.08199999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>0.16</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>0.231</v>
+        <v>0.192</v>
       </c>
       <c r="K14" t="n">
-        <v>0.472</v>
+        <v>0.584</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>columbia</t>
+          <t>clinton</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>192129</v>
+        <v>239308</v>
       </c>
       <c r="D15" t="n">
-        <v>5512</v>
+        <v>4274</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F15" t="n">
-        <v>5027</v>
+        <v>39027</v>
       </c>
       <c r="G15" t="n">
-        <v>0.241</v>
+        <v>0.171</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07200000000000001</v>
+        <v>0.198</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05400000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>0.25</v>
+        <v>0.105</v>
       </c>
       <c r="K15" t="n">
-        <v>0.383</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>conway</t>
+          <t>columbiana</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>151183</v>
+        <v>821848</v>
       </c>
       <c r="D16" t="n">
-        <v>1978</v>
+        <v>23626</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F16" t="n">
-        <v>5029</v>
+        <v>39029</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.098</v>
       </c>
       <c r="H16" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I16" t="n">
-        <v>0.137</v>
+        <v>0.115</v>
       </c>
       <c r="J16" t="n">
-        <v>0.347</v>
+        <v>0.156</v>
       </c>
       <c r="K16" t="n">
-        <v>0.325</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>craighead</t>
+          <t>coshocton</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1230435</v>
+        <v>178689</v>
       </c>
       <c r="D17" t="n">
-        <v>14427</v>
+        <v>2820</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F17" t="n">
-        <v>5031</v>
+        <v>39031</v>
       </c>
       <c r="G17" t="n">
-        <v>0.078</v>
+        <v>0.077</v>
       </c>
       <c r="H17" t="n">
-        <v>0.123</v>
+        <v>0.194</v>
       </c>
       <c r="I17" t="n">
-        <v>0.138</v>
+        <v>0.294</v>
       </c>
       <c r="J17" t="n">
-        <v>0.341</v>
+        <v>0.178</v>
       </c>
       <c r="K17" t="n">
-        <v>0.32</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="18">
@@ -1127,2297 +1127,2804 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>570713</v>
+        <v>265701</v>
       </c>
       <c r="D18" t="n">
-        <v>7311</v>
+        <v>5545</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F18" t="n">
-        <v>5033</v>
+        <v>39033</v>
       </c>
       <c r="G18" t="n">
-        <v>0.155</v>
+        <v>0.101</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1</v>
+        <v>0.107</v>
       </c>
       <c r="I18" t="n">
-        <v>0.167</v>
+        <v>0.126</v>
       </c>
       <c r="J18" t="n">
-        <v>0.211</v>
+        <v>0.184</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3670000000000001</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>crittenden</t>
+          <t>cuyahoga</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>648677</v>
+        <v>8434587</v>
       </c>
       <c r="D19" t="n">
-        <v>11736</v>
+        <v>179179</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F19" t="n">
-        <v>5035</v>
+        <v>39035</v>
       </c>
       <c r="G19" t="n">
-        <v>0.059</v>
+        <v>0.042</v>
       </c>
       <c r="H19" t="n">
-        <v>0.017</v>
+        <v>0.052</v>
       </c>
       <c r="I19" t="n">
-        <v>0.11</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>0.306</v>
+        <v>0.213</v>
       </c>
       <c r="K19" t="n">
-        <v>0.508</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>cross</t>
+          <t>darke</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>172056</v>
+        <v>452538</v>
       </c>
       <c r="D20" t="n">
-        <v>4432</v>
+        <v>13771</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F20" t="n">
-        <v>5037</v>
+        <v>39037</v>
       </c>
       <c r="G20" t="n">
-        <v>0.097</v>
+        <v>0.2160000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0.017</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.163</v>
+        <v>0.15</v>
       </c>
       <c r="J20" t="n">
-        <v>0.319</v>
+        <v>0.28</v>
       </c>
       <c r="K20" t="n">
-        <v>0.404</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>dallas</t>
+          <t>defiance</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>59342</v>
+        <v>272311</v>
       </c>
       <c r="D21" t="n">
-        <v>1205</v>
+        <v>6738</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F21" t="n">
-        <v>5039</v>
+        <v>39039</v>
       </c>
       <c r="G21" t="n">
-        <v>0.197</v>
+        <v>0.052</v>
       </c>
       <c r="H21" t="n">
-        <v>0.055</v>
+        <v>0.114</v>
       </c>
       <c r="I21" t="n">
-        <v>0.093</v>
+        <v>0.152</v>
       </c>
       <c r="J21" t="n">
-        <v>0.196</v>
+        <v>0.221</v>
       </c>
       <c r="K21" t="n">
-        <v>0.459</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>desha</t>
+          <t>delaware</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>117834</v>
+        <v>1259243</v>
       </c>
       <c r="D22" t="n">
-        <v>1691</v>
+        <v>9180</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F22" t="n">
-        <v>5041</v>
+        <v>39041</v>
       </c>
       <c r="G22" t="n">
-        <v>0.078</v>
+        <v>0.018</v>
       </c>
       <c r="H22" t="n">
-        <v>0.033</v>
+        <v>0.081</v>
       </c>
       <c r="I22" t="n">
-        <v>0.19</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>0.189</v>
+        <v>0.177</v>
       </c>
       <c r="K22" t="n">
-        <v>0.509</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>drew</t>
+          <t>erie</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>162970</v>
+        <v>530794</v>
       </c>
       <c r="D23" t="n">
-        <v>2376</v>
+        <v>15247</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F23" t="n">
-        <v>5043</v>
+        <v>39043</v>
       </c>
       <c r="G23" t="n">
-        <v>0.063</v>
+        <v>0.078</v>
       </c>
       <c r="H23" t="n">
-        <v>0.049</v>
+        <v>0.022</v>
       </c>
       <c r="I23" t="n">
-        <v>0.207</v>
+        <v>0.091</v>
       </c>
       <c r="J23" t="n">
-        <v>0.159</v>
+        <v>0.179</v>
       </c>
       <c r="K23" t="n">
-        <v>0.523</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>faulkner</t>
+          <t>fairfield</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>980652</v>
+        <v>1148346</v>
       </c>
       <c r="D24" t="n">
-        <v>10707</v>
+        <v>12778</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F24" t="n">
-        <v>5045</v>
+        <v>39045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.066</v>
+        <v>0.1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.027</v>
+        <v>0.095</v>
       </c>
       <c r="I24" t="n">
-        <v>0.077</v>
+        <v>0.135</v>
       </c>
       <c r="J24" t="n">
-        <v>0.403</v>
+        <v>0.142</v>
       </c>
       <c r="K24" t="n">
-        <v>0.426</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>franklin</t>
+          <t>fayette</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>135854</v>
+        <v>192643</v>
       </c>
       <c r="D25" t="n">
-        <v>2296</v>
+        <v>2921</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F25" t="n">
-        <v>5047</v>
+        <v>39047</v>
       </c>
       <c r="G25" t="n">
-        <v>0.149</v>
+        <v>0.157</v>
       </c>
       <c r="H25" t="n">
-        <v>0.079</v>
+        <v>0.055</v>
       </c>
       <c r="I25" t="n">
-        <v>0.245</v>
+        <v>0.328</v>
       </c>
       <c r="J25" t="n">
-        <v>0.187</v>
+        <v>0.158</v>
       </c>
       <c r="K25" t="n">
-        <v>0.34</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>fulton</t>
+          <t>franklin</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>92147</v>
+        <v>10855439</v>
       </c>
       <c r="D26" t="n">
-        <v>2990</v>
+        <v>156225</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F26" t="n">
-        <v>5049</v>
+        <v>39049</v>
       </c>
       <c r="G26" t="n">
-        <v>0.105</v>
+        <v>0.042</v>
       </c>
       <c r="H26" t="n">
-        <v>0.121</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>0.226</v>
+        <v>0.09</v>
       </c>
       <c r="J26" t="n">
-        <v>0.197</v>
+        <v>0.198</v>
       </c>
       <c r="K26" t="n">
-        <v>0.351</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>garland</t>
+          <t>fulton</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>759230</v>
+        <v>271030</v>
       </c>
       <c r="D27" t="n">
-        <v>18700</v>
+        <v>3865</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F27" t="n">
-        <v>5051</v>
+        <v>39051</v>
       </c>
       <c r="G27" t="n">
-        <v>0.025</v>
+        <v>0.029</v>
       </c>
       <c r="H27" t="n">
-        <v>0.102</v>
+        <v>0.046</v>
       </c>
       <c r="I27" t="n">
-        <v>0.068</v>
+        <v>0.318</v>
       </c>
       <c r="J27" t="n">
-        <v>0.21</v>
+        <v>0.272</v>
       </c>
       <c r="K27" t="n">
-        <v>0.596</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>gallia</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>121829</v>
+        <v>159330</v>
       </c>
       <c r="D28" t="n">
-        <v>1581</v>
+        <v>3000</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F28" t="n">
-        <v>5053</v>
+        <v>39053</v>
       </c>
       <c r="G28" t="n">
+        <v>0.07400000000000001</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.08199999999999999</v>
       </c>
-      <c r="H28" t="n">
-        <v>0.043</v>
-      </c>
       <c r="I28" t="n">
-        <v>0.127</v>
+        <v>0.203</v>
       </c>
       <c r="J28" t="n">
-        <v>0.258</v>
+        <v>0.178</v>
       </c>
       <c r="K28" t="n">
-        <v>0.489</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>greene</t>
+          <t>geauga</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>496845</v>
+        <v>463639</v>
       </c>
       <c r="D29" t="n">
-        <v>5486</v>
+        <v>13193</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F29" t="n">
-        <v>5055</v>
+        <v>39055</v>
       </c>
       <c r="G29" t="n">
-        <v>0.062</v>
+        <v>0.03</v>
       </c>
       <c r="H29" t="n">
-        <v>0.141</v>
+        <v>0.057</v>
       </c>
       <c r="I29" t="n">
-        <v>0.154</v>
+        <v>0.064</v>
       </c>
       <c r="J29" t="n">
-        <v>0.346</v>
+        <v>0.218</v>
       </c>
       <c r="K29" t="n">
-        <v>0.297</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>hempstead</t>
+          <t>greene</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>159046</v>
+        <v>1029819</v>
       </c>
       <c r="D30" t="n">
-        <v>1476</v>
+        <v>13837</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F30" t="n">
-        <v>5057</v>
+        <v>39057</v>
       </c>
       <c r="G30" t="n">
-        <v>0.098</v>
+        <v>0.041</v>
       </c>
       <c r="H30" t="n">
-        <v>0.073</v>
+        <v>0.08199999999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>0.096</v>
+        <v>0.095</v>
       </c>
       <c r="J30" t="n">
-        <v>0.179</v>
+        <v>0.264</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5539999999999999</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hot spring</t>
+          <t>guernsey</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>568279</v>
+        <v>198216</v>
       </c>
       <c r="D31" t="n">
-        <v>7598</v>
+        <v>2817</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F31" t="n">
-        <v>5059</v>
+        <v>39059</v>
       </c>
       <c r="G31" t="n">
-        <v>0.059</v>
+        <v>0.101</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.162</v>
       </c>
       <c r="I31" t="n">
-        <v>0.079</v>
+        <v>0.137</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2160000000000001</v>
+        <v>0.181</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>howard</t>
+          <t>hamilton</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>156396</v>
+        <v>6401800</v>
       </c>
       <c r="D32" t="n">
-        <v>2634</v>
+        <v>86910</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F32" t="n">
-        <v>5061</v>
+        <v>39061</v>
       </c>
       <c r="G32" t="n">
-        <v>0.081</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.056</v>
       </c>
       <c r="I32" t="n">
-        <v>0.145</v>
+        <v>0.102</v>
       </c>
       <c r="J32" t="n">
-        <v>0.145</v>
+        <v>0.224</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5489999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>independence</t>
+          <t>hancock</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>365949</v>
+        <v>476509</v>
       </c>
       <c r="D33" t="n">
-        <v>10706</v>
+        <v>8046</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F33" t="n">
-        <v>5063</v>
+        <v>39063</v>
       </c>
       <c r="G33" t="n">
-        <v>0.137</v>
+        <v>0.076</v>
       </c>
       <c r="H33" t="n">
-        <v>0.156</v>
+        <v>0.127</v>
       </c>
       <c r="I33" t="n">
-        <v>0.08800000000000001</v>
+        <v>0.122</v>
       </c>
       <c r="J33" t="n">
-        <v>0.179</v>
+        <v>0.302</v>
       </c>
       <c r="K33" t="n">
-        <v>0.44</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>izard</t>
+          <t>hardin</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>147289</v>
+        <v>188749</v>
       </c>
       <c r="D34" t="n">
-        <v>1723</v>
+        <v>4564</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F34" t="n">
-        <v>5065</v>
+        <v>39065</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.149</v>
       </c>
       <c r="H34" t="n">
         <v>0.121</v>
       </c>
       <c r="I34" t="n">
-        <v>0.133</v>
+        <v>0.134</v>
       </c>
       <c r="J34" t="n">
-        <v>0.23</v>
+        <v>0.227</v>
       </c>
       <c r="K34" t="n">
-        <v>0.43</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>jackson</t>
+          <t>harrison</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>276560</v>
+        <v>62793</v>
       </c>
       <c r="D35" t="n">
-        <v>2086</v>
+        <v>1039</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F35" t="n">
-        <v>5067</v>
+        <v>39067</v>
       </c>
       <c r="G35" t="n">
-        <v>0.116</v>
+        <v>0.107</v>
       </c>
       <c r="H35" t="n">
-        <v>0.103</v>
+        <v>0.141</v>
       </c>
       <c r="I35" t="n">
-        <v>0.135</v>
+        <v>0.153</v>
       </c>
       <c r="J35" t="n">
-        <v>0.179</v>
+        <v>0.233</v>
       </c>
       <c r="K35" t="n">
-        <v>0.468</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>jefferson</t>
+          <t>henry</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>973960</v>
+        <v>192119</v>
       </c>
       <c r="D36" t="n">
-        <v>21630</v>
+        <v>4737</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F36" t="n">
-        <v>5069</v>
+        <v>39069</v>
       </c>
       <c r="G36" t="n">
-        <v>0.042</v>
+        <v>0.038</v>
       </c>
       <c r="H36" t="n">
-        <v>0.036</v>
+        <v>0.111</v>
       </c>
       <c r="I36" t="n">
-        <v>0.172</v>
+        <v>0.189</v>
       </c>
       <c r="J36" t="n">
-        <v>0.173</v>
+        <v>0.197</v>
       </c>
       <c r="K36" t="n">
-        <v>0.5770000000000001</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>johnson</t>
+          <t>highland</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>276075</v>
+        <v>220802</v>
       </c>
       <c r="D37" t="n">
-        <v>2344</v>
+        <v>2254</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F37" t="n">
-        <v>5071</v>
+        <v>39071</v>
       </c>
       <c r="G37" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.144</v>
       </c>
-      <c r="H37" t="n">
-        <v>0.103</v>
-      </c>
       <c r="I37" t="n">
-        <v>0.205</v>
+        <v>0.068</v>
       </c>
       <c r="J37" t="n">
-        <v>0.221</v>
+        <v>0.162</v>
       </c>
       <c r="K37" t="n">
-        <v>0.328</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>lafayette</t>
+          <t>hocking</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>45082</v>
+        <v>141747</v>
       </c>
       <c r="D38" t="n">
-        <v>800</v>
+        <v>3387</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F38" t="n">
-        <v>5073</v>
+        <v>39073</v>
       </c>
       <c r="G38" t="n">
-        <v>0.12</v>
+        <v>0.169</v>
       </c>
       <c r="H38" t="n">
-        <v>0.08199999999999999</v>
+        <v>0.137</v>
       </c>
       <c r="I38" t="n">
-        <v>0.078</v>
+        <v>0.21</v>
       </c>
       <c r="J38" t="n">
-        <v>0.234</v>
+        <v>0.104</v>
       </c>
       <c r="K38" t="n">
-        <v>0.486</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>lawrence</t>
+          <t>holmes</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>199466</v>
+        <v>238320</v>
       </c>
       <c r="D39" t="n">
-        <v>5276</v>
+        <v>6429</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F39" t="n">
-        <v>5075</v>
+        <v>39075</v>
       </c>
       <c r="G39" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H39" t="n">
-        <v>0.128</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="I39" t="n">
-        <v>0.153</v>
+        <v>0.134</v>
       </c>
       <c r="J39" t="n">
-        <v>0.298</v>
+        <v>0.271</v>
       </c>
       <c r="K39" t="n">
-        <v>0.337</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>lee</t>
+          <t>huron</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>274773</v>
+        <v>359702</v>
       </c>
       <c r="D40" t="n">
-        <v>3977</v>
+        <v>4565</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F40" t="n">
-        <v>5077</v>
+        <v>39077</v>
       </c>
       <c r="G40" t="n">
-        <v>0.103</v>
+        <v>0.191</v>
       </c>
       <c r="H40" t="n">
-        <v>0.032</v>
+        <v>0.064</v>
       </c>
       <c r="I40" t="n">
-        <v>0.195</v>
+        <v>0.204</v>
       </c>
       <c r="J40" t="n">
-        <v>0.263</v>
+        <v>0.172</v>
       </c>
       <c r="K40" t="n">
-        <v>0.407</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>lincoln</t>
+          <t>jackson</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>547865</v>
+        <v>211562</v>
       </c>
       <c r="D41" t="n">
-        <v>4818</v>
+        <v>3087</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F41" t="n">
-        <v>5079</v>
+        <v>39079</v>
       </c>
       <c r="G41" t="n">
-        <v>0.035</v>
+        <v>0.166</v>
       </c>
       <c r="H41" t="n">
-        <v>0.016</v>
+        <v>0.141</v>
       </c>
       <c r="I41" t="n">
-        <v>0.194</v>
+        <v>0.247</v>
       </c>
       <c r="J41" t="n">
-        <v>0.201</v>
+        <v>0.105</v>
       </c>
       <c r="K41" t="n">
-        <v>0.5539999999999999</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>little river</t>
+          <t>jefferson</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>113601</v>
+        <v>322174</v>
       </c>
       <c r="D42" t="n">
-        <v>5824</v>
+        <v>4840</v>
       </c>
       <c r="E42" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F42" t="n">
-        <v>5081</v>
+        <v>39081</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07400000000000001</v>
+        <v>0.076</v>
       </c>
       <c r="H42" t="n">
-        <v>0.121</v>
+        <v>0.142</v>
       </c>
       <c r="I42" t="n">
-        <v>0.106</v>
+        <v>0.152</v>
       </c>
       <c r="J42" t="n">
-        <v>0.201</v>
+        <v>0.209</v>
       </c>
       <c r="K42" t="n">
-        <v>0.499</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>logan</t>
+          <t>knox</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>180121</v>
+        <v>273766</v>
       </c>
       <c r="D43" t="n">
-        <v>1192</v>
+        <v>3592</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F43" t="n">
-        <v>5083</v>
+        <v>39083</v>
       </c>
       <c r="G43" t="n">
-        <v>0.148</v>
+        <v>0.138</v>
       </c>
       <c r="H43" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="I43" t="n">
-        <v>0.12</v>
+        <v>0.065</v>
       </c>
       <c r="J43" t="n">
-        <v>0.143</v>
+        <v>0.17</v>
       </c>
       <c r="K43" t="n">
-        <v>0.479</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>lonoke</t>
+          <t>lake</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>516734</v>
+        <v>1333442</v>
       </c>
       <c r="D44" t="n">
-        <v>8566</v>
+        <v>17466</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F44" t="n">
-        <v>5085</v>
+        <v>39085</v>
       </c>
       <c r="G44" t="n">
-        <v>0.048</v>
+        <v>0.067</v>
       </c>
       <c r="H44" t="n">
-        <v>0.045</v>
+        <v>0.039</v>
       </c>
       <c r="I44" t="n">
-        <v>0.136</v>
+        <v>0.104</v>
       </c>
       <c r="J44" t="n">
-        <v>0.297</v>
+        <v>0.246</v>
       </c>
       <c r="K44" t="n">
-        <v>0.474</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>madison</t>
+          <t>lawrence</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>137226</v>
+        <v>387641</v>
       </c>
       <c r="D45" t="n">
-        <v>1496</v>
+        <v>6190</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F45" t="n">
-        <v>5087</v>
+        <v>39087</v>
       </c>
       <c r="G45" t="n">
-        <v>0.075</v>
+        <v>0.08900000000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>0.08800000000000001</v>
+        <v>0.097</v>
       </c>
       <c r="I45" t="n">
-        <v>0.159</v>
+        <v>0.185</v>
       </c>
       <c r="J45" t="n">
-        <v>0.114</v>
+        <v>0.23</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>marion</t>
+          <t>licking</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>68277</v>
+        <v>1164466</v>
       </c>
       <c r="D46" t="n">
-        <v>1646</v>
+        <v>17760</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F46" t="n">
-        <v>5089</v>
+        <v>39089</v>
       </c>
       <c r="G46" t="n">
-        <v>0.171</v>
+        <v>0.056</v>
       </c>
       <c r="H46" t="n">
-        <v>0.112</v>
+        <v>0.102</v>
       </c>
       <c r="I46" t="n">
-        <v>0.119</v>
+        <v>0.176</v>
       </c>
       <c r="J46" t="n">
-        <v>0.108</v>
+        <v>0.127</v>
       </c>
       <c r="K46" t="n">
-        <v>0.49</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>miller</t>
+          <t>logan</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>359568</v>
+        <v>251568</v>
       </c>
       <c r="D47" t="n">
-        <v>3624</v>
+        <v>2625</v>
       </c>
       <c r="E47" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F47" t="n">
-        <v>5091</v>
+        <v>39091</v>
       </c>
       <c r="G47" t="n">
-        <v>0.064</v>
+        <v>0.136</v>
       </c>
       <c r="H47" t="n">
-        <v>0.124</v>
+        <v>0.117</v>
       </c>
       <c r="I47" t="n">
-        <v>0.106</v>
+        <v>0.314</v>
       </c>
       <c r="J47" t="n">
-        <v>0.219</v>
+        <v>0.248</v>
       </c>
       <c r="K47" t="n">
-        <v>0.487</v>
+        <v>0.1860000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>mississippi</t>
+          <t>lorain</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>580328</v>
+        <v>1604625</v>
       </c>
       <c r="D48" t="n">
-        <v>13265</v>
+        <v>30288</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F48" t="n">
-        <v>5093</v>
+        <v>39093</v>
       </c>
       <c r="G48" t="n">
-        <v>0.033</v>
+        <v>0.08900000000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>0.109</v>
+        <v>0.097</v>
       </c>
       <c r="I48" t="n">
-        <v>0.134</v>
+        <v>0.099</v>
       </c>
       <c r="J48" t="n">
-        <v>0.284</v>
+        <v>0.207</v>
       </c>
       <c r="K48" t="n">
-        <v>0.44</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>monroe</t>
+          <t>lucas</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>60849</v>
+        <v>3244769</v>
       </c>
       <c r="D49" t="n">
-        <v>809</v>
+        <v>111249</v>
       </c>
       <c r="E49" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F49" t="n">
-        <v>5095</v>
+        <v>39095</v>
       </c>
       <c r="G49" t="n">
-        <v>0.068</v>
+        <v>0.078</v>
       </c>
       <c r="H49" t="n">
-        <v>0.128</v>
+        <v>0.056</v>
       </c>
       <c r="I49" t="n">
-        <v>0.127</v>
+        <v>0.111</v>
       </c>
       <c r="J49" t="n">
-        <v>0.271</v>
+        <v>0.189</v>
       </c>
       <c r="K49" t="n">
-        <v>0.406</v>
+        <v>0.5660000000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>montgomery</t>
+          <t>madison</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>57744</v>
+        <v>353643</v>
       </c>
       <c r="D50" t="n">
-        <v>2125</v>
+        <v>4273</v>
       </c>
       <c r="E50" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F50" t="n">
-        <v>5097</v>
+        <v>39097</v>
       </c>
       <c r="G50" t="n">
-        <v>0.081</v>
+        <v>0.03700000000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>0.095</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="I50" t="n">
-        <v>0.136</v>
+        <v>0.167</v>
       </c>
       <c r="J50" t="n">
-        <v>0.166</v>
+        <v>0.262</v>
       </c>
       <c r="K50" t="n">
-        <v>0.521</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>nevada</t>
+          <t>mahoning</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>81799</v>
+        <v>1729870</v>
       </c>
       <c r="D51" t="n">
-        <v>3233</v>
+        <v>77359</v>
       </c>
       <c r="E51" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F51" t="n">
-        <v>5099</v>
+        <v>39099</v>
       </c>
       <c r="G51" t="n">
-        <v>0.143</v>
+        <v>0.046</v>
       </c>
       <c r="H51" t="n">
-        <v>0.048</v>
+        <v>0.099</v>
       </c>
       <c r="I51" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.099</v>
       </c>
       <c r="J51" t="n">
-        <v>0.224</v>
+        <v>0.231</v>
       </c>
       <c r="K51" t="n">
-        <v>0.501</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>newton</t>
+          <t>marion</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>72782</v>
+        <v>1187495</v>
       </c>
       <c r="D52" t="n">
-        <v>3899</v>
+        <v>16111</v>
       </c>
       <c r="E52" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F52" t="n">
-        <v>5101</v>
+        <v>39101</v>
       </c>
       <c r="G52" t="n">
-        <v>0.107</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="I52" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="J52" t="n">
-        <v>0.261</v>
+        <v>0.159</v>
       </c>
       <c r="K52" t="n">
-        <v>0.408</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ouachita</t>
+          <t>medina</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>150046</v>
+        <v>998411</v>
       </c>
       <c r="D53" t="n">
-        <v>3134</v>
+        <v>17055</v>
       </c>
       <c r="E53" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F53" t="n">
-        <v>5103</v>
+        <v>39103</v>
       </c>
       <c r="G53" t="n">
-        <v>0.151</v>
+        <v>0.068</v>
       </c>
       <c r="H53" t="n">
-        <v>0.097</v>
+        <v>0.077</v>
       </c>
       <c r="I53" t="n">
-        <v>0.06</v>
+        <v>0.125</v>
       </c>
       <c r="J53" t="n">
-        <v>0.242</v>
+        <v>0.227</v>
       </c>
       <c r="K53" t="n">
-        <v>0.449</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>perry</t>
+          <t>meigs</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>53493</v>
+        <v>91030</v>
       </c>
       <c r="D54" t="n">
-        <v>489</v>
+        <v>2330</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F54" t="n">
-        <v>5105</v>
+        <v>39105</v>
       </c>
       <c r="G54" t="n">
-        <v>0.098</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>0.051</v>
+        <v>0.137</v>
       </c>
       <c r="I54" t="n">
-        <v>0.08</v>
+        <v>0.182</v>
       </c>
       <c r="J54" t="n">
-        <v>0.3670000000000001</v>
+        <v>0.177</v>
       </c>
       <c r="K54" t="n">
-        <v>0.404</v>
+        <v>0.4320000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>phillips</t>
+          <t>mercer</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>177763</v>
+        <v>485713</v>
       </c>
       <c r="D55" t="n">
-        <v>3625</v>
+        <v>9606</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F55" t="n">
-        <v>5107</v>
+        <v>39107</v>
       </c>
       <c r="G55" t="n">
-        <v>0.052</v>
+        <v>0.102</v>
       </c>
       <c r="H55" t="n">
-        <v>0.061</v>
+        <v>0.105</v>
       </c>
       <c r="I55" t="n">
-        <v>0.134</v>
+        <v>0.245</v>
       </c>
       <c r="J55" t="n">
-        <v>0.276</v>
+        <v>0.314</v>
       </c>
       <c r="K55" t="n">
-        <v>0.477</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>pike</t>
+          <t>miami</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>81696</v>
+        <v>853822</v>
       </c>
       <c r="D56" t="n">
-        <v>1099</v>
+        <v>15441</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F56" t="n">
-        <v>5109</v>
+        <v>39109</v>
       </c>
       <c r="G56" t="n">
-        <v>0.064</v>
+        <v>0.077</v>
       </c>
       <c r="H56" t="n">
-        <v>0.061</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I56" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="J56" t="n">
-        <v>0.176</v>
+        <v>0.227</v>
       </c>
       <c r="K56" t="n">
-        <v>0.501</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>poinsett</t>
+          <t>monroe</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>287975</v>
+        <v>84671</v>
       </c>
       <c r="D57" t="n">
-        <v>6765</v>
+        <v>5393</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F57" t="n">
-        <v>5111</v>
+        <v>39111</v>
       </c>
       <c r="G57" t="n">
-        <v>0.077</v>
+        <v>0.04</v>
       </c>
       <c r="H57" t="n">
-        <v>0.098</v>
+        <v>0.144</v>
       </c>
       <c r="I57" t="n">
-        <v>0.141</v>
+        <v>0.139</v>
       </c>
       <c r="J57" t="n">
-        <v>0.287</v>
+        <v>0.291</v>
       </c>
       <c r="K57" t="n">
-        <v>0.397</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>polk</t>
+          <t>montgomery</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>145545</v>
+        <v>4046586</v>
       </c>
       <c r="D58" t="n">
-        <v>3487</v>
+        <v>50009</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F58" t="n">
-        <v>5113</v>
+        <v>39113</v>
       </c>
       <c r="G58" t="n">
-        <v>0.18</v>
+        <v>0.041</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08</v>
+        <v>0.065</v>
       </c>
       <c r="I58" t="n">
-        <v>0.217</v>
+        <v>0.065</v>
       </c>
       <c r="J58" t="n">
-        <v>0.076</v>
+        <v>0.222</v>
       </c>
       <c r="K58" t="n">
-        <v>0.446</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>pope</t>
+          <t>morgan</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>746436</v>
+        <v>62195</v>
       </c>
       <c r="D59" t="n">
-        <v>8493</v>
+        <v>1930</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F59" t="n">
-        <v>5115</v>
+        <v>39115</v>
       </c>
       <c r="G59" t="n">
-        <v>0.08199999999999999</v>
+        <v>0.142</v>
       </c>
       <c r="H59" t="n">
-        <v>0.151</v>
+        <v>0.114</v>
       </c>
       <c r="I59" t="n">
-        <v>0.181</v>
+        <v>0.153</v>
       </c>
       <c r="J59" t="n">
-        <v>0.285</v>
+        <v>0.259</v>
       </c>
       <c r="K59" t="n">
-        <v>0.302</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>prairie</t>
+          <t>morrow</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>68145</v>
+        <v>197954</v>
       </c>
       <c r="D60" t="n">
-        <v>1481</v>
+        <v>617</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F60" t="n">
-        <v>5117</v>
+        <v>39117</v>
       </c>
       <c r="G60" t="n">
-        <v>0.062</v>
+        <v>0.059</v>
       </c>
       <c r="H60" t="n">
-        <v>0.17</v>
+        <v>0.094</v>
       </c>
       <c r="I60" t="n">
-        <v>0.103</v>
+        <v>0.075</v>
       </c>
       <c r="J60" t="n">
-        <v>0.273</v>
+        <v>0.31</v>
       </c>
       <c r="K60" t="n">
-        <v>0.391</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>pulaski</t>
+          <t>muskingum</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3374846</v>
+        <v>530642</v>
       </c>
       <c r="D61" t="n">
-        <v>54882</v>
+        <v>2946</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F61" t="n">
-        <v>5119</v>
+        <v>39119</v>
       </c>
       <c r="G61" t="n">
-        <v>0.028</v>
+        <v>0.136</v>
       </c>
       <c r="H61" t="n">
-        <v>0.027</v>
+        <v>0.145</v>
       </c>
       <c r="I61" t="n">
-        <v>0.126</v>
+        <v>0.121</v>
       </c>
       <c r="J61" t="n">
-        <v>0.175</v>
+        <v>0.182</v>
       </c>
       <c r="K61" t="n">
-        <v>0.644</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>randolph</t>
+          <t>noble</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>179576</v>
+        <v>96780</v>
       </c>
       <c r="D62" t="n">
-        <v>5499</v>
+        <v>2989</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F62" t="n">
-        <v>5121</v>
+        <v>39121</v>
       </c>
       <c r="G62" t="n">
-        <v>0.051</v>
+        <v>0.109</v>
       </c>
       <c r="H62" t="n">
-        <v>0.145</v>
+        <v>0.176</v>
       </c>
       <c r="I62" t="n">
-        <v>0.203</v>
+        <v>0.139</v>
       </c>
       <c r="J62" t="n">
-        <v>0.289</v>
+        <v>0.219</v>
       </c>
       <c r="K62" t="n">
-        <v>0.311</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>saline</t>
+          <t>ottawa</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>928684</v>
+        <v>266804</v>
       </c>
       <c r="D63" t="n">
-        <v>11488</v>
+        <v>7862</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F63" t="n">
-        <v>5125</v>
+        <v>39123</v>
       </c>
       <c r="G63" t="n">
-        <v>0.066</v>
+        <v>0.052</v>
       </c>
       <c r="H63" t="n">
-        <v>0.044</v>
+        <v>0.035</v>
       </c>
       <c r="I63" t="n">
-        <v>0.154</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="J63" t="n">
-        <v>0.212</v>
+        <v>0.219</v>
       </c>
       <c r="K63" t="n">
-        <v>0.524</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>scott</t>
+          <t>paulding</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>68901</v>
+        <v>119510</v>
       </c>
       <c r="D64" t="n">
-        <v>874</v>
+        <v>1704</v>
       </c>
       <c r="E64" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F64" t="n">
-        <v>5127</v>
+        <v>39125</v>
       </c>
       <c r="G64" t="n">
-        <v>0.155</v>
+        <v>0.095</v>
       </c>
       <c r="H64" t="n">
-        <v>0.14</v>
+        <v>0.061</v>
       </c>
       <c r="I64" t="n">
-        <v>0.124</v>
+        <v>0.24</v>
       </c>
       <c r="J64" t="n">
-        <v>0.123</v>
+        <v>0.314</v>
       </c>
       <c r="K64" t="n">
-        <v>0.458</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>searcy</t>
+          <t>perry</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>57535</v>
+        <v>189309</v>
       </c>
       <c r="D65" t="n">
-        <v>848</v>
+        <v>2391</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F65" t="n">
-        <v>5129</v>
+        <v>39127</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1</v>
+        <v>0.138</v>
       </c>
       <c r="H65" t="n">
-        <v>0.08800000000000001</v>
+        <v>0.149</v>
       </c>
       <c r="I65" t="n">
-        <v>0.125</v>
+        <v>0.214</v>
       </c>
       <c r="J65" t="n">
-        <v>0.149</v>
+        <v>0.19</v>
       </c>
       <c r="K65" t="n">
-        <v>0.5379999999999999</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>sebastian</t>
+          <t>pickaway</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1326536</v>
+        <v>1036785</v>
       </c>
       <c r="D66" t="n">
-        <v>21270</v>
+        <v>12637</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F66" t="n">
-        <v>5131</v>
+        <v>39129</v>
       </c>
       <c r="G66" t="n">
-        <v>0.121</v>
+        <v>0.067</v>
       </c>
       <c r="H66" t="n">
-        <v>0.142</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="I66" t="n">
-        <v>0.157</v>
+        <v>0.092</v>
       </c>
       <c r="J66" t="n">
-        <v>0.208</v>
+        <v>0.244</v>
       </c>
       <c r="K66" t="n">
-        <v>0.3720000000000001</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>sevier</t>
+          <t>pike</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>354636</v>
+        <v>146494</v>
       </c>
       <c r="D67" t="n">
-        <v>3915</v>
+        <v>864</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F67" t="n">
-        <v>5133</v>
+        <v>39131</v>
       </c>
       <c r="G67" t="n">
-        <v>0.12</v>
+        <v>0.1860000000000001</v>
       </c>
       <c r="H67" t="n">
-        <v>0.093</v>
+        <v>0.124</v>
       </c>
       <c r="I67" t="n">
-        <v>0.155</v>
+        <v>0.124</v>
       </c>
       <c r="J67" t="n">
-        <v>0.165</v>
+        <v>0.158</v>
       </c>
       <c r="K67" t="n">
-        <v>0.467</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>sharp</t>
+          <t>portage</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>127507</v>
+        <v>803710</v>
       </c>
       <c r="D68" t="n">
-        <v>3843</v>
+        <v>21267</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F68" t="n">
-        <v>5135</v>
+        <v>39133</v>
       </c>
       <c r="G68" t="n">
-        <v>0.067</v>
+        <v>0.028</v>
       </c>
       <c r="H68" t="n">
-        <v>0.158</v>
+        <v>0.078</v>
       </c>
       <c r="I68" t="n">
-        <v>0.22</v>
+        <v>0.126</v>
       </c>
       <c r="J68" t="n">
-        <v>0.222</v>
+        <v>0.213</v>
       </c>
       <c r="K68" t="n">
-        <v>0.333</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>st. francis</t>
+          <t>preble</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>466719</v>
+        <v>286490</v>
       </c>
       <c r="D69" t="n">
-        <v>2819</v>
+        <v>4034</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F69" t="n">
-        <v>5123</v>
+        <v>39135</v>
       </c>
       <c r="G69" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.045</v>
       </c>
       <c r="H69" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.146</v>
       </c>
       <c r="I69" t="n">
-        <v>0.289</v>
+        <v>0.1860000000000001</v>
       </c>
       <c r="J69" t="n">
-        <v>0.267</v>
+        <v>0.248</v>
       </c>
       <c r="K69" t="n">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>stone</t>
+          <t>putnam</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>95907</v>
+        <v>366897</v>
       </c>
       <c r="D70" t="n">
-        <v>3494</v>
+        <v>9588</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F70" t="n">
-        <v>5137</v>
+        <v>39137</v>
       </c>
       <c r="G70" t="n">
-        <v>0.067</v>
+        <v>0.041</v>
       </c>
       <c r="H70" t="n">
-        <v>0.092</v>
+        <v>0.118</v>
       </c>
       <c r="I70" t="n">
-        <v>0.11</v>
+        <v>0.253</v>
       </c>
       <c r="J70" t="n">
-        <v>0.234</v>
+        <v>0.307</v>
       </c>
       <c r="K70" t="n">
-        <v>0.498</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>union</t>
+          <t>richland</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>328004</v>
+        <v>751909</v>
       </c>
       <c r="D71" t="n">
-        <v>11152</v>
+        <v>10097</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F71" t="n">
-        <v>5139</v>
+        <v>39139</v>
       </c>
       <c r="G71" t="n">
-        <v>0.116</v>
+        <v>0.066</v>
       </c>
       <c r="H71" t="n">
-        <v>0.179</v>
+        <v>0.08</v>
       </c>
       <c r="I71" t="n">
-        <v>0.098</v>
+        <v>0.213</v>
       </c>
       <c r="J71" t="n">
-        <v>0.262</v>
+        <v>0.221</v>
       </c>
       <c r="K71" t="n">
-        <v>0.344</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>van buren</t>
+          <t>ross</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>86798</v>
+        <v>496308</v>
       </c>
       <c r="D72" t="n">
-        <v>1235</v>
+        <v>10100</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F72" t="n">
-        <v>5141</v>
+        <v>39141</v>
       </c>
       <c r="G72" t="n">
-        <v>0.033</v>
+        <v>0.181</v>
       </c>
       <c r="H72" t="n">
-        <v>0.06</v>
+        <v>0.103</v>
       </c>
       <c r="I72" t="n">
-        <v>0.096</v>
+        <v>0.101</v>
       </c>
       <c r="J72" t="n">
-        <v>0.272</v>
+        <v>0.168</v>
       </c>
       <c r="K72" t="n">
-        <v>0.539</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>washington</t>
+          <t>sandusky</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3105666</v>
+        <v>368550</v>
       </c>
       <c r="D73" t="n">
-        <v>33372</v>
+        <v>7759</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F73" t="n">
-        <v>5143</v>
+        <v>39143</v>
       </c>
       <c r="G73" t="n">
-        <v>0.034</v>
+        <v>0.139</v>
       </c>
       <c r="H73" t="n">
-        <v>0.028</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>0.101</v>
+        <v>0.109</v>
       </c>
       <c r="J73" t="n">
-        <v>0.1860000000000001</v>
+        <v>0.209</v>
       </c>
       <c r="K73" t="n">
-        <v>0.6509999999999999</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>scioto</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>530230</v>
+        <v>425766</v>
       </c>
       <c r="D74" t="n">
-        <v>8576</v>
+        <v>4510</v>
       </c>
       <c r="E74" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F74" t="n">
-        <v>5145</v>
+        <v>39145</v>
       </c>
       <c r="G74" t="n">
-        <v>0.026</v>
+        <v>0.121</v>
       </c>
       <c r="H74" t="n">
-        <v>0.05400000000000001</v>
+        <v>0.096</v>
       </c>
       <c r="I74" t="n">
-        <v>0.152</v>
+        <v>0.242</v>
       </c>
       <c r="J74" t="n">
-        <v>0.277</v>
+        <v>0.156</v>
       </c>
       <c r="K74" t="n">
-        <v>0.491</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>woodruff</t>
+          <t>seneca</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>40626</v>
+        <v>348570</v>
       </c>
       <c r="D75" t="n">
-        <v>266</v>
+        <v>5161</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F75" t="n">
-        <v>5147</v>
+        <v>39147</v>
       </c>
       <c r="G75" t="n">
-        <v>0.059</v>
+        <v>0.119</v>
       </c>
       <c r="H75" t="n">
-        <v>0.048</v>
+        <v>0.195</v>
       </c>
       <c r="I75" t="n">
-        <v>0.208</v>
+        <v>0.243</v>
       </c>
       <c r="J75" t="n">
-        <v>0.231</v>
+        <v>0.164</v>
       </c>
       <c r="K75" t="n">
-        <v>0.454</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>yell</t>
+          <t>shelby</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>arkansas</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>381971</v>
+        <v>365768</v>
       </c>
       <c r="D76" t="n">
-        <v>7288</v>
+        <v>3033</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F76" t="n">
-        <v>5149</v>
+        <v>39149</v>
       </c>
       <c r="G76" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.2160000000000001</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>stark</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ohio</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>2140210</v>
+      </c>
+      <c r="D77" t="n">
+        <v>56956</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F77" t="n">
+        <v>39151</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>summit</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ohio</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>3125623</v>
+      </c>
+      <c r="D78" t="n">
+        <v>93978</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F78" t="n">
+        <v>39153</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>trumbull</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ohio</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1188511</v>
+      </c>
+      <c r="D79" t="n">
+        <v>41164</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F79" t="n">
+        <v>39155</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.05400000000000001</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.535</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>tuscarawas</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ohio</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>676543</v>
+      </c>
+      <c r="D80" t="n">
+        <v>14954</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F80" t="n">
+        <v>39157</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="I80" t="n">
         <v>0.116</v>
       </c>
-      <c r="H76" t="n">
+      <c r="J80" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.339</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>union</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ohio</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>378114</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2093</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F81" t="n">
+        <v>39159</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.463</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>van wert</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ohio</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>165156</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3319</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F82" t="n">
+        <v>39161</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.212</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>vinton</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ohio</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>53872</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1345</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F83" t="n">
+        <v>39163</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>warren</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ohio</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1753718</v>
+      </c>
+      <c r="D84" t="n">
+        <v>17991</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F84" t="n">
+        <v>39165</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.647</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>washington</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ohio</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>299360</v>
+      </c>
+      <c r="D85" t="n">
+        <v>7684</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F85" t="n">
+        <v>39167</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.07200000000000001</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>wayne</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ohio</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>643780</v>
+      </c>
+      <c r="D86" t="n">
+        <v>24622</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F86" t="n">
+        <v>39169</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.08199999999999999</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.466</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>williams</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ohio</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>223866</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4252</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F87" t="n">
+        <v>39171</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>wood</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ohio</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>957048</v>
+      </c>
+      <c r="D88" t="n">
+        <v>24708</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F88" t="n">
+        <v>39173</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.5720000000000001</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>wyandot</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ohio</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>161873</v>
+      </c>
+      <c r="D89" t="n">
+        <v>4681</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F89" t="n">
+        <v>39175</v>
+      </c>
+      <c r="G89" t="n">
         <v>0.1</v>
       </c>
-      <c r="I76" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.198</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.474</v>
+      <c r="H89" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.426</v>
       </c>
     </row>
   </sheetData>
